--- a/data/income_statement/2digits/size/28_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/28_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>28-Manufacture of machinery and equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>28-Manufacture of machinery and equipment n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1148 +841,1298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5359947.64742</v>
+        <v>5431462.193809999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6652030.94565</v>
+        <v>6710846.24626</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8396625.236780001</v>
+        <v>8490650.553140001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9533182.797290001</v>
+        <v>9813268.3323</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11357625.47527</v>
+        <v>11808454.20625</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13747131.31591</v>
+        <v>13886327.50905</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14879298.78491</v>
+        <v>15611987.32458</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16101507.35756</v>
+        <v>16634442.67629</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>20619861.49005</v>
+        <v>20916026.61851</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30950521.89764</v>
+        <v>31469389.57257</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>33427944.08667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33886910.32123</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>44667668.175</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3909863.97609</v>
+        <v>3904256.60439</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5174466.55724</v>
+        <v>5180020.952730001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6669878.144180001</v>
+        <v>6696601.34632</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7490689.045630001</v>
+        <v>7672056.62458</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8737051.52241</v>
+        <v>9006648.031380001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10674676.56913</v>
+        <v>10677551.24284</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>11729992.20727</v>
+        <v>12174659.64575</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>12698618.46911</v>
+        <v>13031816.66234</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>16098326.13566</v>
+        <v>16127699.38548</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22287116.83226</v>
+        <v>22633275.65921</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>22851176.93189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>22943083.1362</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>32081561.535</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1392180.70927</v>
+        <v>1470875.14926</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1401217.41962</v>
+        <v>1455143.67664</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1632308.05732</v>
+        <v>1686095.57346</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1937037.51068</v>
+        <v>2022736.71993</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2492808.59373</v>
+        <v>2677073.68817</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2922134.51478</v>
+        <v>3062274.27538</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2966894.70609</v>
+        <v>3253173.92668</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3200375.42546</v>
+        <v>3403620.84485</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4229655.50174</v>
+        <v>4491506.47193</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8279461.39598</v>
+        <v>8456168.309839999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10095145.35981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10451539.03306</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11947272.13</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>57902.96206000001</v>
+        <v>56330.44016</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>76346.96878999998</v>
+        <v>75681.61689</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>94439.03528</v>
+        <v>107953.63336</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>105456.24098</v>
+        <v>118474.98779</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>127765.35913</v>
+        <v>124732.4867</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>150320.232</v>
+        <v>146501.99083</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>182411.87155</v>
+        <v>184153.75215</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>202513.46299</v>
+        <v>199005.1691</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>291879.85265</v>
+        <v>296820.7611</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>383943.6694</v>
+        <v>379945.60352</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>481621.79497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>492288.15197</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>638834.51</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>132310.61268</v>
+        <v>134804.63179</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>161805.89389</v>
+        <v>165418.94686</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>199022.0474</v>
+        <v>209362.70145</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>207393.30135</v>
+        <v>216084.48547</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>219265.08422</v>
+        <v>239853.56877</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>320529.69089</v>
+        <v>329499.15686</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>316941.80044</v>
+        <v>335499.47505</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>376777.13434</v>
+        <v>408658.19818</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>504240.74948</v>
+        <v>560534.2829199999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>717927.15919</v>
+        <v>772943.7820199999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>717152.7506899999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>720486.8708799999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>963684.674</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>57694.41375999999</v>
+        <v>60695.69372</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>61755.32196999999</v>
+        <v>62816.82379</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>87867.39917</v>
+        <v>91376.78548999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>102123.82656</v>
+        <v>103715.10341</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>113710.3694</v>
+        <v>111389.82835</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>190978.66185</v>
+        <v>189503.78608</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>173731.814</v>
+        <v>190484.83036</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>240495.9284</v>
+        <v>256319.34729</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>340534.40249</v>
+        <v>381032.30604</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>492603.4876699999</v>
+        <v>530552.8821899999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>489799.48863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>497756.8881800001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>710924.735</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>68467.14324999999</v>
+        <v>66991.58063</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>93380.56689999999</v>
+        <v>96025.89615</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>103937.85209</v>
+        <v>110618.60732</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>96683.53002999999</v>
+        <v>102230.45408</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>97940.53148000001</v>
+        <v>120330.32124</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>115256.54673</v>
+        <v>125692.44085</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>119007.65545</v>
+        <v>119774.4495</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>115243.92737</v>
+        <v>129580.38212</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>137488.01937</v>
+        <v>148362.92291</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>158406.67287</v>
+        <v>168337.75886</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>178140.34693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>171500.01734</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>181792.488</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6149.055669999999</v>
+        <v>7117.35744</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>6670.005020000001</v>
+        <v>6576.226920000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7216.796139999999</v>
+        <v>7367.308639999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>8585.944759999998</v>
+        <v>10138.92798</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7614.18334</v>
+        <v>8133.41918</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>14294.48231</v>
+        <v>14302.92993</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>24202.33099</v>
+        <v>25240.19519</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>21037.27857</v>
+        <v>22758.46877</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>26218.32762</v>
+        <v>31139.05397</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>66916.99864999999</v>
+        <v>74053.14096999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>49212.91512999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>51229.96536</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>70967.451</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5227637.03474</v>
+        <v>5296657.562019999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6490225.051759999</v>
+        <v>6545427.299400001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8197603.18938</v>
+        <v>8281287.85169</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9325789.495939998</v>
+        <v>9597183.846829999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11138360.39105</v>
+        <v>11568600.63748</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>13426601.62502</v>
+        <v>13556828.35219</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14562356.98447</v>
+        <v>15276487.84953</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15724730.22322</v>
+        <v>16225784.47811</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>20115620.74057</v>
+        <v>20355492.33559</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>30232594.73845</v>
+        <v>30696445.79055</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>32710791.33598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>33166423.45035</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>43703983.501</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4077644.82619</v>
+        <v>4124199.15612</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5220350.843210001</v>
+        <v>5255020.01102</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6634071.59787</v>
+        <v>6663187.724640001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7532709.99872</v>
+        <v>7745478.626680001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8905390.74824</v>
+        <v>9169424.593139999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10837803.0174</v>
+        <v>10889421.97058</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11704236.16718</v>
+        <v>12279884.28942</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>12723697.34676</v>
+        <v>13080198.83632</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>16248365.08405</v>
+        <v>16394118.84723</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23753813.71473</v>
+        <v>24020604.75901</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25518392.2165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25777708.89617</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>33921823.466</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3340971.03972</v>
+        <v>3383065.6716</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4318503.44305</v>
+        <v>4382335.5995</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5496885.05171</v>
+        <v>5524290.70004</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6220631.50599</v>
+        <v>6428363.31163</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7372425.84769</v>
+        <v>7585878.28496</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8656776.85816</v>
+        <v>8724702.631170001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9514265.419759998</v>
+        <v>9953293.075709999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10191085.03969</v>
+        <v>10540994.50962</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>12926955.51544</v>
+        <v>13125820.16434</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>19798848.19922</v>
+        <v>20039799.02859</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20797247.77642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21162349.31236</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>27722884.374</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>542574.23678</v>
+        <v>537861.15446</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>705598.66651</v>
+        <v>691825.1092899999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>902121.26845</v>
+        <v>884473.33261</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1038421.10438</v>
+        <v>1028185.52501</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1244660.08048</v>
+        <v>1271405.99126</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1722649.0643</v>
+        <v>1687708.14871</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1778229.56225</v>
+        <v>1819806.65398</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1993035.87021</v>
+        <v>2008942.99521</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2751183.18697</v>
+        <v>2665700.25275</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3197677.98607</v>
+        <v>3186131.22116</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3875175.9399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3755868.92992</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5132533.575</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>181939.87422</v>
+        <v>190646.7102</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>183379.24417</v>
+        <v>169057.70981</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>212830.38081</v>
+        <v>230732.73575</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>255565.50545</v>
+        <v>273211.55227</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>249615.31157</v>
+        <v>274683.2577899999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>407048.76217</v>
+        <v>424903.6871</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>353899.48233</v>
+        <v>446168.64115</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>479300.35008</v>
+        <v>465537.31562</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>488208.87752</v>
+        <v>512686.7950399999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>552856.02521</v>
+        <v>585589.39749</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>702256.6075100001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>704414.92189</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>861898.711</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>12159.67547</v>
+        <v>12625.61986</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12869.48948</v>
+        <v>11801.59242</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>22234.8969</v>
+        <v>23690.95624</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>18091.8829</v>
+        <v>15718.23777</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>38689.5085</v>
+        <v>37457.05912999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>51328.33276999999</v>
+        <v>52107.5036</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>57841.70284</v>
+        <v>60615.91858000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>60276.08678</v>
+        <v>64724.01587</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>82017.50412</v>
+        <v>89911.63510000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>204431.50423</v>
+        <v>209085.11177</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>143711.89267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>155075.732</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>204506.806</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1149992.20855</v>
+        <v>1172458.4059</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1269874.20855</v>
+        <v>1290407.28838</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1563531.59151</v>
+        <v>1618100.12705</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1793079.49722</v>
+        <v>1851705.22015</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2232969.64281</v>
+        <v>2399176.04434</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2588798.60762</v>
+        <v>2667406.38161</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2858120.81729</v>
+        <v>2996603.56011</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3001032.87646</v>
+        <v>3145585.64179</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3867255.65652</v>
+        <v>3961373.48836</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6478781.02372</v>
+        <v>6675841.03154</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7192399.119480001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7388714.55418</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9782160.035</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>616282.4884100001</v>
+        <v>624733.2769300001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>735400.57533</v>
+        <v>736361.9866199999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>845396.3172800001</v>
+        <v>856016.9126300002</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1011599.38222</v>
+        <v>1056424.34527</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1209841.72949</v>
+        <v>1252445.98139</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1424358.75177</v>
+        <v>1411238.5649</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1596269.89544</v>
+        <v>1658989.74028</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1790118.43589</v>
+        <v>1832846.08042</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2102209.43256</v>
+        <v>2115763.79608</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3056522.653900001</v>
+        <v>3107299.23935</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3611694.10407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3686139.72034</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4061750.559</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>15757.8545</v>
+        <v>16855.7454</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>16753.08653</v>
+        <v>18091.10982</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>15765.80002</v>
+        <v>17300.30917</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>22643.05946</v>
+        <v>25011.86285</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>36024.50971</v>
+        <v>38597.93969</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>33366.82993</v>
+        <v>35144.37791</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>40290.52475</v>
+        <v>47609.28212</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>41302.22892</v>
+        <v>42440.21747</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>54785.92404999999</v>
+        <v>56129.11536</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>136434.6675</v>
+        <v>142893.34201</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>152694.00233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>184110.53153</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>219156.713</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>213537.67337</v>
+        <v>231158.98974</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>252870.926</v>
+        <v>264206.0236</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>283577.67166</v>
+        <v>298370.75966</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>333741.2085900001</v>
+        <v>354202.16315</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>427691.48099</v>
+        <v>442772.72396</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>495793.05603</v>
+        <v>504710.59024</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>548176.25479</v>
+        <v>583494.78487</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>573785.4768899999</v>
+        <v>617485.3547500001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>687368.5265799999</v>
+        <v>725921.77316</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1221856.01954</v>
+        <v>1267980.01172</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1408690.48187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1448919.01324</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1461717.777</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>386986.9605400001</v>
+        <v>376718.54179</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>465776.5628</v>
+        <v>454064.8532</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>546052.8456</v>
+        <v>540345.8437999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>655215.11417</v>
+        <v>677210.31927</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>746125.73879</v>
+        <v>771075.31774</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>895198.8658100001</v>
+        <v>871383.59675</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1007803.1159</v>
+        <v>1027885.67329</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1175030.73008</v>
+        <v>1172920.5082</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1360054.98193</v>
+        <v>1333712.90756</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1698231.96686</v>
+        <v>1696425.88562</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2050309.61987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2053110.17557</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2380876.069</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>533709.72014</v>
+        <v>547725.1289700001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>534473.63322</v>
+        <v>554045.3017599999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>718135.27423</v>
+        <v>762083.2144200001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>781480.115</v>
+        <v>795280.87488</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1023127.91332</v>
+        <v>1146730.06295</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1164439.85585</v>
+        <v>1256167.81671</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1261850.92185</v>
+        <v>1337613.81983</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1210914.44057</v>
+        <v>1312739.56137</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1765046.22396</v>
+        <v>1845609.69228</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3422258.36982</v>
+        <v>3568541.79219</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3580705.01541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3702574.83384</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5720409.476</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>190055.69219</v>
+        <v>207847.94761</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>192162.26115</v>
+        <v>216997.68896</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>246182.95728</v>
+        <v>250165.71344</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>203317.86423</v>
+        <v>228643.69361</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>395514.3316</v>
+        <v>451665.1551099999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>357580.14521</v>
+        <v>373988.29243</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>622888.83822</v>
+        <v>730531.3150299999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>587321.02107</v>
+        <v>680025.25182</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>715285.6486599999</v>
+        <v>810031.15146</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3709169.40142</v>
+        <v>3971535.12669</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1986630.24144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2094984.51783</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3914892.111</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>812.52876</v>
+        <v>3825.944659999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1324.84786</v>
+        <v>2494.79295</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3287.95044</v>
+        <v>1891.44311</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5565.02621</v>
+        <v>4070.9488</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1359.30652</v>
+        <v>1557.40442</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2976.00777</v>
+        <v>4677.090429999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5686.57416</v>
+        <v>2349.26216</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5012.20986</v>
+        <v>2059.55983</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7322.48658</v>
+        <v>14700.8658</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>17719.75069</v>
+        <v>9722.12608</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>7006.82628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2669.57728</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>5385.38</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>835.74101</v>
+        <v>155.04724</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>3178.75291</v>
+        <v>205.35792</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2025.57811</v>
+        <v>373.55023</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>736.9451</v>
+        <v>8882.14796</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>554.06597</v>
+        <v>638.2551599999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6256.524890000001</v>
+        <v>3956.29071</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>593.11806</v>
+        <v>582.0522900000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>500.40792</v>
+        <v>1284.66192</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>1255.91994</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>8773.66424</v>
+        <v>6334.52524</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>14086.20211</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>18221.593</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>23924.33704</v>
+        <v>24609.95501</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>19895.1895</v>
+        <v>20090.55138</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>20986.20085</v>
+        <v>18359.88748</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>29679.4532</v>
+        <v>27989.76876</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>30158.26409</v>
+        <v>30746.18368</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>44531.43325</v>
+        <v>40074.93904</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>43220.95011</v>
+        <v>45424.69201000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>40356.16435</v>
+        <v>43809.71624</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>57513.65296</v>
+        <v>61140.62189000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>138097.64861</v>
+        <v>147266.8904</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>134758.63732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>150313.02732</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>127005.955</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1559.89079</v>
+        <v>1558.51183</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2449.43072</v>
+        <v>2041.07376</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1714.61921</v>
+        <v>1620.27816</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>508.85823</v>
+        <v>596.7769499999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2127.37159</v>
+        <v>2148.96619</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1793.79087</v>
+        <v>1700.23986</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2220.64404</v>
+        <v>1887.89803</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1514.69392</v>
+        <v>1592.34415</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3749.71825</v>
+        <v>2265.09528</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2376.10345</v>
+        <v>2369.00848</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5919.297779999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3394.30379</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>11962.895</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3374.5712</v>
+        <v>4204.22952</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>7218.18912</v>
+        <v>9123.27556</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3981.82334</v>
+        <v>4041.09414</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8615.502829999999</v>
+        <v>8472.23026</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>10863.56164</v>
+        <v>10999.4741</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>11664.829</v>
+        <v>9833.229360000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9217.945820000001</v>
+        <v>11744.95884</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>10227.73791</v>
+        <v>11046.34393</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9133.29399</v>
+        <v>9442.186549999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>31368.03483</v>
+        <v>31514.74944</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>29885.85377</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36732.96137</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22714.092</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>802.38904</v>
+        <v>610.2466200000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>432.3226999999999</v>
+        <v>624.17927</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1903.50386</v>
+        <v>2612.00985</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>783.78291</v>
+        <v>963.14647</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1193.11171</v>
+        <v>1748.14835</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1400.4175</v>
+        <v>1598.86391</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2297.85162</v>
+        <v>1878.85667</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3158.77945</v>
+        <v>1715.49454</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3058.3112</v>
+        <v>2936.889079999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7304.50542</v>
+        <v>3340.93126</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8121.41708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7308.07054</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>28691.97</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>124621.39701</v>
+        <v>131878.54384</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>126424.39844</v>
+        <v>144309.9146</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>177981.79965</v>
+        <v>190312.0077</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>117156.54472</v>
+        <v>142168.13899</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>301942.13557</v>
+        <v>347517.17906</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>233362.76617</v>
+        <v>255813.4249</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>494704.0848500001</v>
+        <v>598230.83244</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>445742.69141</v>
+        <v>533239.30068</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>544902.59549</v>
+        <v>627977.55837</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3327081.68683</v>
+        <v>3592024.43617</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1581642.60589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1679560.67547</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3431336.678</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>477.2105299999999</v>
+        <v>4062.34378</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>359.34056</v>
+        <v>4825.77661</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>686.96925</v>
+        <v>786.6225400000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>336.63491</v>
+        <v>204.74312</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1549.62863</v>
+        <v>4741.41912</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2557.48692</v>
+        <v>2694.41234</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2735.8966</v>
+        <v>4169.31054</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2904.30897</v>
+        <v>3201.15409</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2131.07763</v>
+        <v>2131.15855</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>7647.00566</v>
+        <v>8898.465129999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>8390.975490000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>8046.17592</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>33512.994</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>160.28485</v>
+        <v>37.04989</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>33.5984</v>
@@ -2090,13 +2141,13 @@
         <v>157.01447</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>45.97129999999999</v>
+        <v>45.06449</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1209.06109</v>
+        <v>697.82307</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>252.16947</v>
+        <v>246.63317</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>335.23475</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>2.091</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>33487.34195999999</v>
+        <v>36906.07522</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>30846.19094</v>
+        <v>33249.16851</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>33457.4981</v>
+        <v>30011.80576</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>39889.14482000001</v>
+        <v>35250.72781</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>44557.82479</v>
+        <v>50870.30196</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>52784.71936999999</v>
+        <v>53393.16870999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>61876.53820999999</v>
+        <v>63928.2173</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>77570.96145</v>
+        <v>81743.61061</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>85722.65889000001</v>
+        <v>87684.92227000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>168801.00169</v>
+        <v>170063.99449</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>196818.42572</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>192873.52403</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>236058.463</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>192158.89423</v>
+        <v>196781.84902</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>161252.47008</v>
+        <v>184776.67825</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>241520.45364</v>
+        <v>256849.59135</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>169088.03998</v>
+        <v>190854.90632</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>401362.81647</v>
+        <v>467174.2029</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>304584.2349</v>
+        <v>333255.94564</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>583592.50244</v>
+        <v>726020.3101100001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>562894.6556599999</v>
+        <v>666807.32622</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>666172.42914</v>
+        <v>818936.10828</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3589294.44704</v>
+        <v>3829739.53428</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1723766.08448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1843821.44468</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3152933.432</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>9322.0915</v>
+        <v>9464.0733</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>11955.41963</v>
+        <v>11474.41363</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7169.464349999999</v>
+        <v>7029.31968</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>11648.57963</v>
+        <v>11368.88947</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16109.20291</v>
+        <v>18039.93974</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>15039.12632</v>
+        <v>14607.63333</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14536.12125</v>
+        <v>17536.08456</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>15140.4784</v>
+        <v>16765.34527</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>17834.74621</v>
+        <v>17268.66411</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>47626.60477</v>
+        <v>48783.51674</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>33111.50154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>34108.76018</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>46896.353</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>37135.50635</v>
+        <v>34076.871</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>16734.24999</v>
+        <v>17124.09471</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>15813.59162</v>
+        <v>16032.23218</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>25091.00872</v>
+        <v>23968.36781</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>34908.19888</v>
+        <v>37744.13546</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>32559.69368</v>
+        <v>33287.73276</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>42862.40777</v>
+        <v>47144.76507</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>59772.42677000001</v>
+        <v>51746.58889</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>36621.913</v>
+        <v>75907.56545000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>100458.66238</v>
+        <v>106600.26627</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>76197.36246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>101215.2609</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>99009.508</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1179.15924</v>
+        <v>90.51324</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>172.03314</v>
@@ -2285,121 +2361,136 @@
         <v>46.01162</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2202.04537</v>
+        <v>2178.89277</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>227.18012</v>
+        <v>992.2216100000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>410.56643</v>
+        <v>4339.19389</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1324.56062</v>
+        <v>4099.23742</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1293.37633</v>
+        <v>722.769</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>526.37001</v>
+        <v>745.01618</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>4286.703189999999</v>
+        <v>1481.41248</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1719.11498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1506.24605</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1781.533</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>128754.16205</v>
+        <v>134388.35373</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>119847.09468</v>
+        <v>138466.40154</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>205875.20453</v>
+        <v>220089.58083</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>117067.02853</v>
+        <v>140118.89792</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>330054.07055</v>
+        <v>378628.1907</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>237227.3373</v>
+        <v>259388.80501</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>497646.98985</v>
+        <v>625790.93979</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>463254.09464</v>
+        <v>571835.2651699999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>585458.14696</v>
+        <v>689235.45193</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3370480.41065</v>
+        <v>3602906.53194</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1529545.54049</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1628905.72842</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2892422.926</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>431.92022</v>
+        <v>4408.93912</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>442.2633299999999</v>
+        <v>4634.81146</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>583.4775500000001</v>
+        <v>584.11554</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>79.84218000000001</v>
+        <v>24.35545</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2029.5698</v>
+        <v>6709.056609999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2840.957100000001</v>
+        <v>3888.45501</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>3479.16408</v>
+        <v>4673.146110000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3709.54024</v>
+        <v>3803.84427</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2243.85525</v>
+        <v>2236.823669999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>5605.998149999999</v>
+        <v>8225.84001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>10041.25911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>9262.749609999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>50618.371</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>52.99091000000001</v>
+        <v>6.824520000000001</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>147.19055</v>
+        <v>2.32193</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>57.95454</v>
+        <v>10.27454</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>11.39626</v>
@@ -2408,7 +2499,7 @@
         <v>66.58208999999999</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>73.38039999999999</v>
@@ -2417,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>884.5879699999999</v>
+        <v>891.30161</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>72.03389999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>15283.06396</v>
+        <v>14346.27411</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11954.21876</v>
+        <v>12902.60184</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11974.74943</v>
+        <v>13058.05696</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>12988.13929</v>
+        <v>13184.10664</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>17968.01212</v>
+        <v>24994.07669</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16506.21207</v>
+        <v>17744.12564</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23669.87847</v>
+        <v>26702.75676</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>19724.73928</v>
+        <v>21933.51362</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>22602.80974</v>
+        <v>32651.28533</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>60836.0679</v>
+        <v>61741.96684</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>73079.272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>68750.66562</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>62204.741</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>146228.6549</v>
+        <v>138972.04771</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>118029.31325</v>
+        <v>117546.75009</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>148993.42001</v>
+        <v>159729.86105</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>182704.60996</v>
+        <v>189943.44875</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>236472.35571</v>
+        <v>245341.45818</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>257583.11564</v>
+        <v>262815.46976</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>332042.0683</v>
+        <v>369066.45218</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>367843.22313</v>
+        <v>419296.36513</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>442767.31563</v>
+        <v>497323.4365</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>898607.14648</v>
+        <v>1005685.9828</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>890865.03676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>912185.53428</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>950349.701</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>137945.43056</v>
+        <v>129826.04938</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>112448.61546</v>
+        <v>111184.50084</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>141079.65123</v>
+        <v>150148.50796</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>174592.73833</v>
+        <v>181059.79149</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>219218.17422</v>
+        <v>227812.58569</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>243800.83102</v>
+        <v>248070.02157</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>315926.14437</v>
+        <v>346011.32588</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>347646.68565</v>
+        <v>392365.61657</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>418411.91759</v>
+        <v>474931.99291</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>835635.00518</v>
+        <v>912048.1572600001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>834848.6567899999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>849511.2674400001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>868612.215</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>8283.224340000001</v>
+        <v>9145.99833</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5580.69779</v>
+        <v>6362.24925</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7913.76878</v>
+        <v>9581.353090000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8111.871629999999</v>
+        <v>8883.65726</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>17254.18149</v>
+        <v>17528.87249</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>13782.28462</v>
+        <v>14745.44819</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>16115.92393</v>
+        <v>23055.1263</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>20196.53748</v>
+        <v>26930.74856</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>24355.39804</v>
+        <v>22391.44359</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>62972.1413</v>
+        <v>93637.82554000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>56016.37997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>62674.26684</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>81737.486</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>385377.8631999999</v>
+        <v>419819.17985</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>447354.11104</v>
+        <v>468719.56238</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>573804.35786</v>
+        <v>595669.47546</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>633005.32929</v>
+        <v>643126.2134199999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>780807.07274</v>
+        <v>885879.5569799999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>959852.65052</v>
+        <v>1034084.69374</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>969105.1893300001</v>
+        <v>973058.3725699999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>867497.5828499999</v>
+        <v>906661.1218399999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1371392.12785</v>
+        <v>1339381.29896</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2643526.17772</v>
+        <v>2704651.4018</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2952704.13561</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3041552.37271</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5532018.454</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>41317.63915</v>
+        <v>35527.3272</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>45579.46090000001</v>
+        <v>44177.32494</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>48284.64186</v>
+        <v>45248.55484</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>63730.65471</v>
+        <v>60982.65474000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>98864.40633</v>
+        <v>83224.52322</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>115951.73717</v>
+        <v>116347.81697</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>145395.29616</v>
+        <v>138194.98213</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>181750.115</v>
+        <v>201059.62238</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>226322.31828</v>
+        <v>243582.85951</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>240466.38292</v>
+        <v>248681.39489</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>278197.18137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>280906.41969</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>354997.863</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1926.39338</v>
+        <v>1619.33817</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2293.8312</v>
+        <v>1968.90419</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2481.07873</v>
+        <v>2422.20338</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2099.46756</v>
+        <v>2042.03326</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1031.43181</v>
+        <v>812.81337</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1768.34507</v>
+        <v>1762.58204</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7869.09052</v>
+        <v>1676.68789</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7172.50276</v>
+        <v>6510.93697</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2770.03439</v>
+        <v>2332.70646</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3454.59665</v>
+        <v>3207.71125</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4277.176509999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3654.19396</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>13033.483</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>39391.24577</v>
+        <v>33907.98903</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>43285.6297</v>
+        <v>42208.42075</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>45803.56312999999</v>
+        <v>42826.35145999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>61631.18715000001</v>
+        <v>58940.62148</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>97832.97452000002</v>
+        <v>82411.70985</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>114183.3921</v>
+        <v>114585.23493</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>137526.20564</v>
+        <v>136518.29424</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>174577.61224</v>
+        <v>194548.68541</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>223552.28389</v>
+        <v>241250.15305</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>237011.78627</v>
+        <v>245473.68364</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>273920.00486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>277252.2257299999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>341964.38</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>168836.02688</v>
+        <v>46752.92478</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>45435.12984</v>
+        <v>44685.21243</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>323442.37951</v>
+        <v>283155.98568</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>50025.38236</v>
+        <v>56776.75665</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>72029.75016999998</v>
+        <v>74834.79256</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>200912.136</v>
+        <v>247136.32957</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>81110.76804000001</v>
+        <v>97926.97724000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>318735.30028</v>
+        <v>345059.69929</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>115713.27049</v>
+        <v>106938.94401</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>365453.6394399999</v>
+        <v>420880.2554399999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>211053.75519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>216765.52181</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>298716.693</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8496.504739999998</v>
+        <v>8093.61688</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3941.02292</v>
+        <v>8929.69514</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5930.126060000001</v>
+        <v>8350.57056</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1544.21976</v>
+        <v>3509.4598</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5145.09877</v>
+        <v>6901.233899999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5865.55895</v>
+        <v>11221.4917</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4169.23048</v>
+        <v>6643.101119999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8551.63149</v>
+        <v>16776.05873</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2839.2386</v>
+        <v>2890.21806</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8102.43828</v>
+        <v>16740.8483</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>22850.58605</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18707.03858</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>18571.313</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4050.94588</v>
+        <v>4931.41672</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3874.29217</v>
+        <v>3514.85459</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4553.71975</v>
+        <v>3975.75259</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4289.74621</v>
+        <v>3893.29256</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8988.133519999999</v>
+        <v>9575.752329999998</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12162.47554</v>
+        <v>11888.40726</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10780.34277</v>
+        <v>12696.78295</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8680.652109999999</v>
+        <v>7987.29925</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5656.34673</v>
+        <v>4604.11655</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11606.64777</v>
+        <v>11642.7074</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11600.13964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10350.59554</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>12649.732</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>156288.57626</v>
+        <v>33727.89118</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>37619.81475</v>
+        <v>32240.6627</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>312958.5337</v>
+        <v>270829.66253</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>44191.41639</v>
+        <v>49374.00429</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>57896.51787999999</v>
+        <v>58357.80633</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>182884.10151</v>
+        <v>224026.43061</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>66161.19479000001</v>
+        <v>78587.09316999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>301503.01668</v>
+        <v>320296.34131</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>107217.68516</v>
+        <v>99444.60939999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>345744.55339</v>
+        <v>392496.69974</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>176603.0295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>187707.88769</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>267495.648</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>257859.47547</v>
+        <v>408593.58227</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>447498.4421</v>
+        <v>468211.67489</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>298646.62021</v>
+        <v>357762.04462</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>646710.6016400001</v>
+        <v>647332.11151</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>807641.7289</v>
+        <v>894269.2876400001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>874892.2516899999</v>
+        <v>903296.1811400001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1033389.71745</v>
+        <v>1013326.37746</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>730512.39757</v>
+        <v>762661.0449300001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1482001.17564</v>
+        <v>1476025.21446</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2518538.9212</v>
+        <v>2532452.54125</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3019847.56179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3105693.27059</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5588299.624</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>82462.81384</v>
+        <v>86181.51301000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>90507.78436999999</v>
+        <v>93314.17406999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>113293.61977</v>
+        <v>114742.07337</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>124363.64036</v>
+        <v>127311.74617</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>164280.45419</v>
+        <v>182332.2129</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>177241.65234</v>
+        <v>187736.97404</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>195743.67834</v>
+        <v>200046.98436</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>188311.87047</v>
+        <v>194989.16244</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>239468.53464</v>
+        <v>240130.42941</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>457857.16327</v>
+        <v>479116.80433</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>468349.82861</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>476016.88254</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>788445.551</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>175396.66163</v>
+        <v>322412.06926</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>356990.65773</v>
+        <v>374897.50082</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>185353.00044</v>
+        <v>243019.97125</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>522346.96128</v>
+        <v>520020.36534</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>643361.27471</v>
+        <v>711937.07474</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>697650.5993499999</v>
+        <v>715559.2070999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>837646.0391099999</v>
+        <v>813279.3931</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>542200.5270999999</v>
+        <v>567671.88249</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1242532.641</v>
+        <v>1235894.78505</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2060681.75793</v>
+        <v>2053335.73692</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2551497.73318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2629676.38805</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4799854.073</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>734</v>
+        <v>586</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>845</v>
+        <v>717</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>970</v>
+        <v>816</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>814</v>
+        <v>696</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>949</v>
+        <v>780</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1046</v>
+        <v>873</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1191</v>
+        <v>936</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1396</v>
+        <v>1085</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>820</v>
+        <v>757</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>774</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>